--- a/DATA_goal/Junction_Flooding_488.xlsx
+++ b/DATA_goal/Junction_Flooding_488.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44819.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44819.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.41</v>
+        <v>14.13</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.67</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.1</v>
+        <v>30.98</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.51</v>
+        <v>25.1</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.58</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.97</v>
+        <v>39.7</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.38</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.48</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.15</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.64</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>16.43</v>
+        <v>164.34</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.15</v>
+        <v>31.47</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.79</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.21</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1</v>
+        <v>10.05</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.65</v>
+        <v>36.5</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="4">
@@ -863,16 +863,16 @@
         <v>44819.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0</v>
@@ -881,85 +881,85 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="Z4" s="4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.35</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44819.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.6</v>
+        <v>25.98</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.23</v>
+        <v>32.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.83</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.12</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.61</v>
+        <v>136.14</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.07</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.61</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.91</v>
+        <v>29.1</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.1</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_488.xlsx
+++ b/DATA_goal/Junction_Flooding_488.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44819.54861111111</v>
+        <v>45169.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.49</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.42</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.55</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.17</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.89</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.74</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.36</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44819.55555555555</v>
+        <v>45169.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.13</v>
+        <v>9.609</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.67</v>
+        <v>6.511</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.87</v>
+        <v>1.581</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.98</v>
+        <v>20.565</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.1</v>
+        <v>16.566</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.58</v>
+        <v>7.562</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.7</v>
+        <v>31.653</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.22</v>
+        <v>11.635</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.16</v>
+        <v>4.908</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.24</v>
+        <v>7.264</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.38</v>
+        <v>8.228999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.48</v>
+        <v>8.516</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.15</v>
+        <v>2.418</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.28</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.64</v>
+        <v>10.522</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>6.618</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.27</v>
+        <v>1.509</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.885</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>164.34</v>
+        <v>107.143</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.47</v>
+        <v>21.161</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.41</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.79</v>
+        <v>13.895</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.43</v>
+        <v>7.251</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.51</v>
+        <v>1.576</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.21</v>
+        <v>14.794</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.9</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>5.655</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.05</v>
+        <v>6.607</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.71</v>
+        <v>8.411</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.5</v>
+        <v>28.943</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.21</v>
+        <v>3.8</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.71</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44819.5625</v>
+        <v>45169.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.28</v>
+        <v>14.413</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.23</v>
+        <v>10.367</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.254</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.82</v>
+        <v>31.178</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>25.429</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>11.342</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>42.99</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.41</v>
+        <v>17.452</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.616</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.05</v>
+        <v>11.291</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.26</v>
+        <v>12.527</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>13.109</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.04</v>
+        <v>3.622</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.38</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.47</v>
+        <v>15.94</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.48</v>
+        <v>9.657</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>1.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.765</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>164.344</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.67</v>
+        <v>31.506</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.35</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.05</v>
+        <v>21.011</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.77</v>
+        <v>11.07</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>1.887</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.42</v>
+        <v>20.715</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.1</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.6</v>
+        <v>8.263999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.7</v>
+        <v>9.694000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.74</v>
+        <v>13.015</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.35</v>
+        <v>38.87</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.39</v>
+        <v>5.81</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.25</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44819.56944444445</v>
+        <v>45169.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.86</v>
+        <v>19.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.91</v>
+        <v>14.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.98</v>
+        <v>41.69</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.93</v>
+        <v>34.18</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>15.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.29</v>
+        <v>57.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.41</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.73</v>
+        <v>10.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>15.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.37</v>
+        <v>16.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.83</v>
+        <v>17.61</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.94</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.4</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.12</v>
+        <v>21.37</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.93</v>
+        <v>12.71</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.84</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>136.14</v>
+        <v>221.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.07</v>
+        <v>42.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.68</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>52.43</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="AH5" s="4" t="n">
         <v>17.35</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>16.61</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>10.69</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44819.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>90.23</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.25</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_488.xlsx
+++ b/DATA_goal/Junction_Flooding_488.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,14 +444,14 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -465,11 +465,11 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45169.50694444445</v>
+        <v>44819.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.178</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.652</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.068</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.752</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.691</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.879</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>51.007</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.432</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.251</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.607</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.868</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.597</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.069</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.79</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.094</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.41</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.498</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.451</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>232.996</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.923</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.575</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.082</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.996</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.159</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.874</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.654</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.651</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.331</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.457</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>45.214</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.105</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.222</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45169.51388888889</v>
+        <v>44819.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.609</v>
+        <v>14.133</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.511</v>
+        <v>10.67</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.581</v>
+        <v>0.872</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.565</v>
+        <v>30.983</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.566</v>
+        <v>25.096</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.562</v>
+        <v>10.581</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.653</v>
+        <v>39.697</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.635</v>
+        <v>17.222</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.908</v>
+        <v>8.164</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.264</v>
+        <v>11.241</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.228999999999999</v>
+        <v>12.377</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.516</v>
+        <v>13.481</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.418</v>
+        <v>4.146</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.519</v>
+        <v>11.279</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.522</v>
+        <v>15.643</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.618</v>
+        <v>9.545999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>164.339</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>10.411</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>20.791</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>1.509</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>107.143</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>21.161</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>6.941</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>13.895</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>7.251</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>1.576</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>14.794</v>
+        <v>21.21</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.131</v>
+        <v>8.897</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.655</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.607</v>
+        <v>10.046</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.411</v>
+        <v>13.711</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.266</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.943</v>
+        <v>36.504</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.8</v>
+        <v>6.213</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.678000000000001</v>
+        <v>12.714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45169.52083333334</v>
+        <v>44819.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.413</v>
+        <v>0.284</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.367</v>
+        <v>0.229</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.254</v>
+        <v>0.261</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.178</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.429</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.342</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>42.99</v>
+        <v>8.108000000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.452</v>
+        <v>0.411</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.616</v>
+        <v>0.747</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.291</v>
+        <v>0.053</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.527</v>
+        <v>0.263</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.109</v>
+        <v>0.067</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.622</v>
+        <v>0.04</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.279</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.94</v>
+        <v>0.467</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.657</v>
+        <v>0.477</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.078</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.765</v>
+        <v>0.243</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>164.344</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.506</v>
+        <v>1.674</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.411</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.011</v>
+        <v>1.051</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.07</v>
+        <v>0.766</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.887</v>
+        <v>0.063</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.715</v>
+        <v>4.423</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.196</v>
+        <v>0.101</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.263999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.694000000000001</v>
+        <v>0.702</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.015</v>
+        <v>0.74</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0.438</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.87</v>
+        <v>8.347</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.81</v>
+        <v>0.393</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.016</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45169.52777777778</v>
+        <v>44819.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.22</v>
+        <v>11.859</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.1</v>
+        <v>8.912000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.2</v>
+        <v>0.581</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.69</v>
+        <v>25.979</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.18</v>
+        <v>20.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.12</v>
+        <v>9.609</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>57.81</v>
+        <v>32.293</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.27</v>
+        <v>14.408</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.29</v>
+        <v>6.728</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>15.27</v>
+        <v>9.468</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.75</v>
+        <v>10.374</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.61</v>
+        <v>10.834</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.83</v>
+        <v>2.938</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.04</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>21.37</v>
+        <v>13.117</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.71</v>
+        <v>7.927</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>136.141</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>26.072</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>8.676</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>17.351</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>9.451000000000001</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>16.615</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>7.506</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>6.971</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>8.209</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>11.238</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>29.099</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>5.099</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>10.688</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44819.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>90.23</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>0.84</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>221.58</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>42.04</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>28.22</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>28.09</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>52.43</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>17.35</v>
+      <c r="Z6" s="4" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_488.xlsx
+++ b/DATA_goal/Junction_Flooding_488.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,14 +444,14 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -465,11 +465,11 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44819.54861111111</v>
+        <v>45169.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44819.55555555555</v>
+        <v>45169.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.133</v>
+        <v>9.609</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.67</v>
+        <v>6.511</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.872</v>
+        <v>1.581</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.983</v>
+        <v>20.565</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.096</v>
+        <v>16.566</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.581</v>
+        <v>7.562</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.697</v>
+        <v>31.653</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.222</v>
+        <v>11.635</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.164</v>
+        <v>4.908</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.241</v>
+        <v>7.264</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.377</v>
+        <v>8.228999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.481</v>
+        <v>8.516</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.146</v>
+        <v>2.418</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.279</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.643</v>
+        <v>10.522</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.545999999999999</v>
+        <v>6.618</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.268</v>
+        <v>1.509</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.773</v>
+        <v>0.885</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>164.339</v>
+        <v>107.143</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.47</v>
+        <v>21.161</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.411</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.791</v>
+        <v>13.895</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.43</v>
+        <v>7.251</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.509</v>
+        <v>1.576</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.21</v>
+        <v>14.794</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.897</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>5.655</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.046</v>
+        <v>6.607</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.711</v>
+        <v>8.411</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.504</v>
+        <v>28.943</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.213</v>
+        <v>3.8</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.714</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44819.5625</v>
+        <v>45169.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.284</v>
+        <v>14.413</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.229</v>
+        <v>10.367</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.261</v>
+        <v>1.254</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.8159999999999999</v>
+        <v>31.178</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>25.429</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>11.342</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.108000000000001</v>
+        <v>42.99</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.411</v>
+        <v>17.452</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.747</v>
+        <v>7.616</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.053</v>
+        <v>11.291</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.263</v>
+        <v>12.527</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.067</v>
+        <v>13.109</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.04</v>
+        <v>3.622</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.376</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.467</v>
+        <v>15.94</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.477</v>
+        <v>9.657</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.078</v>
+        <v>1.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.243</v>
+        <v>0.765</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>164.344</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.674</v>
+        <v>31.506</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.347</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.051</v>
+        <v>21.011</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.766</v>
+        <v>11.07</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.063</v>
+        <v>1.887</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.423</v>
+        <v>20.715</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.101</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.603</v>
+        <v>8.263999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.702</v>
+        <v>9.694000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.74</v>
+        <v>13.015</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.438</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.347</v>
+        <v>38.87</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.393</v>
+        <v>5.81</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.254</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44819.56944444445</v>
+        <v>45169.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.859</v>
+        <v>19.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.912000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.581</v>
+        <v>1.2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>25.979</v>
+        <v>41.69</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.93</v>
+        <v>34.18</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.609</v>
+        <v>15.12</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.293</v>
+        <v>57.81</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.408</v>
+        <v>23.27</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.728</v>
+        <v>10.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.468</v>
+        <v>15.27</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.374</v>
+        <v>16.75</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.834</v>
+        <v>17.61</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.938</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>15.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.117</v>
+        <v>21.37</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.927</v>
+        <v>12.71</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.146</v>
+        <v>0.84</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.8</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>136.141</v>
+        <v>221.58</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.072</v>
+        <v>42.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.676</v>
+        <v>13.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.351</v>
+        <v>28.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.451000000000001</v>
+        <v>14.85</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.24</v>
+        <v>2.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.615</v>
+        <v>28.09</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.506</v>
+        <v>12.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.971</v>
+        <v>10.91</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.209</v>
+        <v>12.81</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.238</v>
+        <v>17.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.325</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.099</v>
+        <v>52.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.099</v>
+        <v>7.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.688</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44819.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>25.92</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>90.23</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>23.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.25</v>
+        <v>17.35</v>
       </c>
     </row>
   </sheetData>
